--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3215.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3215.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.297247242882814</v>
+        <v>1.771852374076843</v>
       </c>
       <c r="B1">
-        <v>3.472807570603525</v>
+        <v>1.968438267707825</v>
       </c>
       <c r="C1">
-        <v>5.673769241022412</v>
+        <v>2.233006238937378</v>
       </c>
       <c r="D1">
-        <v>2.12962157724291</v>
+        <v>2.744485855102539</v>
       </c>
       <c r="E1">
-        <v>1.318346294911012</v>
+        <v>1.386294841766357</v>
       </c>
     </row>
   </sheetData>
